--- a/public/assets/files/template.xlsx
+++ b/public/assets/files/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thuc Tap Sinh\TDC_Project\mid_web_v3\public\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hieu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B947B909-635C-4765-A9EA-5BA2297AD7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D2704-E9B4-4B8F-818D-04B97D6B1E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94E76C59-EEB7-44D4-852C-6D691FFAD01A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C87C49A3-AECA-4226-AF70-5D5A9A360977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,39 +20,196 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Biển số</t>
-  </si>
-  <si>
-    <t>Giấy phép lái xe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+  <si>
+    <t>Biển số xe</t>
+  </si>
+  <si>
+    <t>Loại cảnh báo</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Hạn nhắc nhở</t>
+  </si>
+  <si>
+    <t>Chu kì( Tháng)</t>
+  </si>
+  <si>
+    <t>Thời gian nhắc nhở</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Lốp(Seri,size,brand)</t>
+  </si>
+  <si>
+    <t>avc,50x50,toyota</t>
+  </si>
+  <si>
+    <t>xcv,10x10,honda</t>
+  </si>
+  <si>
+    <t>vxcv,201x10,hehe</t>
+  </si>
+  <si>
+    <t>Nguyễn Viết Thịnh</t>
+  </si>
+  <si>
+    <t>Ngô Đăng Khoa</t>
+  </si>
+  <si>
+    <t>Phạm Trọng hiếu</t>
+  </si>
+  <si>
+    <t>123 đường 235</t>
+  </si>
+  <si>
+    <t>123 đường 234</t>
+  </si>
+  <si>
+    <t>87123 đường 257</t>
+  </si>
+  <si>
+    <t>091213123</t>
+  </si>
+  <si>
+    <t>021321798</t>
+  </si>
+  <si>
+    <t>021323198</t>
+  </si>
+  <si>
+    <t>nhắc nhở cho Thịnh</t>
+  </si>
+  <si>
+    <t>nhắc nhở cho Khoa</t>
+  </si>
+  <si>
+    <t>nhắc nhở cho Hiếu</t>
+  </si>
+  <si>
+    <t>234ABCD</t>
+  </si>
+  <si>
+    <t>332ABCD</t>
+  </si>
+  <si>
+    <t>50H5445GG</t>
+  </si>
+  <si>
+    <t>Thay lốp định kỳ</t>
+  </si>
+  <si>
+    <t>Bảo hiểm tự nguyện</t>
+  </si>
+  <si>
+    <t>Lịch gia hạn phù hiệu KDVT</t>
+  </si>
+  <si>
+    <t>323SSWE</t>
+  </si>
+  <si>
+    <t>92937232</t>
+  </si>
+  <si>
+    <t>Nguoi dung moi</t>
+  </si>
+  <si>
+    <t>Dia chi an com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nhac nho tesst</t>
+  </si>
+  <si>
+    <t>Cate moi nha cac ban oi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/10/2026 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/08/2026 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/09/2026 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/04/2026-24/04/2026 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/04/2026-24/04/2026  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04/2026-24/08/2026 </t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/05/2026-24/08/2026 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/04/2024-24/04/2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/09/2024-13/09/2024 </t>
+  </si>
+  <si>
+    <t>07/04/2026-09/04/2026</t>
+  </si>
+  <si>
+    <t>23:20</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>Nguoi dung moi 2</t>
+  </si>
+  <si>
+    <t>9293723244</t>
+  </si>
+  <si>
+    <t>Dia chi an com moi</t>
+  </si>
+  <si>
+    <t>cate moi ne cac ban</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nhac nho tesst moi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/09/2024-25/09/2024 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,8 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,39 +266,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -191,7 +350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -243,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -302,6 +461,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -310,13 +476,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -381,60 +540,280 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CA3ADB-5B7D-4593-9D63-C0E00D5A3386}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC60E16-D6C0-44BD-AE63-3D55872F76E9}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" customWidth="1"/>
+    <col min="16" max="16" width="23.88671875" customWidth="1"/>
+    <col min="17" max="17" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E6" xr:uid="{893CC5EA-717A-44B5-B5E9-8BD65D12980D}">
+      <formula1>"TNDS bắt buộc,Bảo hiểm tự nguyện,Lịch gia hạn phù hiệu KDVT,Thay dầu-nhớt định kỳ,Thay bình Accu định kỳ,Thay lốp định kỳ"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/assets/files/template.xlsx
+++ b/public/assets/files/template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hieu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D2704-E9B4-4B8F-818D-04B97D6B1E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9986602-3FC7-4479-8419-F52D6AB71A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C87C49A3-AECA-4226-AF70-5D5A9A360977}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C87C49A3-AECA-4226-AF70-5D5A9A360977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Biển số xe</t>
   </si>
@@ -102,15 +103,6 @@
     <t>nhắc nhở cho Hiếu</t>
   </si>
   <si>
-    <t>234ABCD</t>
-  </si>
-  <si>
-    <t>332ABCD</t>
-  </si>
-  <si>
-    <t>50H5445GG</t>
-  </si>
-  <si>
     <t>Thay lốp định kỳ</t>
   </si>
   <si>
@@ -120,9 +112,6 @@
     <t>Lịch gia hạn phù hiệu KDVT</t>
   </si>
   <si>
-    <t>323SSWE</t>
-  </si>
-  <si>
     <t>92937232</t>
   </si>
   <si>
@@ -180,22 +169,28 @@
     <t>12:00</t>
   </si>
   <si>
-    <t>Nguoi dung moi 2</t>
-  </si>
-  <si>
-    <t>9293723244</t>
-  </si>
-  <si>
-    <t>Dia chi an com moi</t>
-  </si>
-  <si>
-    <t>cate moi ne cac ban</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nhac nho tesst moi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/09/2024-25/09/2024 </t>
+    <t>50H5445GGV</t>
+  </si>
+  <si>
+    <t>234ABCDV</t>
+  </si>
+  <si>
+    <t>332ABCDV</t>
+  </si>
+  <si>
+    <t>323SSWEV</t>
+  </si>
+  <si>
+    <t>Thời gian mặc định</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>Loại của excel</t>
+  </si>
+  <si>
+    <t>Thêm mới</t>
   </si>
 </sst>
 </file>
@@ -552,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC60E16-D6C0-44BD-AE63-3D55872F76E9}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,13 +603,13 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
@@ -631,7 +626,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -643,10 +638,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
@@ -655,19 +650,19 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
@@ -681,7 +676,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -693,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2">
         <v>4</v>
@@ -705,19 +700,19 @@
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -729,10 +724,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
         <v>7</v>
@@ -741,79 +736,90 @@
         <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E6" xr:uid="{893CC5EA-717A-44B5-B5E9-8BD65D12980D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E5" xr:uid="{893CC5EA-717A-44B5-B5E9-8BD65D12980D}">
       <formula1>"TNDS bắt buộc,Bảo hiểm tự nguyện,Lịch gia hạn phù hiệu KDVT,Thay dầu-nhớt định kỳ,Thay bình Accu định kỳ,Thay lốp định kỳ"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E88994-0A71-4644-94C1-CD076763F3D0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{30C3E264-9E3D-42B6-A091-370DE37EE82D}">
+      <formula1>"Thêm mới, Thay thế"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>